--- a/UZ/чистый бланк/Бланк Заказа Мос Прод Торг.xlsx
+++ b/UZ/чистый бланк/Бланк Заказа Мос Прод Торг.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F40127B-6929-4D3E-A213-F922F90F8F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709E555D-411A-42E3-8C73-27A1108DDB33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1534,7 +1534,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1587,13 +1587,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="14">
-        <v>45748</v>
+        <v>45755</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="78">
-        <v>45755</v>
+        <v>45762</v>
       </c>
       <c r="G3" s="79"/>
       <c r="H3" s="79"/>

--- a/UZ/чистый бланк/Бланк Заказа Мос Прод Торг.xlsx
+++ b/UZ/чистый бланк/Бланк Заказа Мос Прод Торг.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709E555D-411A-42E3-8C73-27A1108DDB33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A76E12-A752-4B8A-BA35-B1A76432FA16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1534,7 +1534,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1587,13 +1587,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="14">
-        <v>45755</v>
+        <v>45762</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="78">
-        <v>45762</v>
+        <v>45769</v>
       </c>
       <c r="G3" s="79"/>
       <c r="H3" s="79"/>

--- a/UZ/чистый бланк/Бланк Заказа Мос Прод Торг.xlsx
+++ b/UZ/чистый бланк/Бланк Заказа Мос Прод Торг.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A76E12-A752-4B8A-BA35-B1A76432FA16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6284641D-775E-45CD-A45D-3DAEF76E598E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="Лист1" sheetId="22" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">машины!$A$9:$I$50</definedName>
-    <definedName name="кол_во_инд.__упак_к">машины!$AC$3:$AC$940</definedName>
-    <definedName name="номин.вес_нетто__кг">машины!$W$3:$W$940</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">машины!$A$9:$I$51</definedName>
+    <definedName name="кол_во_инд.__упак_к">машины!$AC$3:$AC$941</definedName>
+    <definedName name="номин.вес_нетто__кг">машины!$W$3:$W$941</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -1530,11 +1530,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J1572"/>
+  <dimension ref="A1:J1573"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <pane ySplit="9" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1587,13 +1587,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="14">
-        <v>45762</v>
+        <v>45769</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="78">
-        <v>45769</v>
+        <v>45776</v>
       </c>
       <c r="G3" s="79"/>
       <c r="H3" s="79"/>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="str">
-        <f>RIGHT(D10:D47,4)</f>
+        <f>RIGHT(D10:D48,4)</f>
         <v>3220</v>
       </c>
       <c r="B10" s="47" t="s">
@@ -1728,7 +1728,7 @@
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="str">
-        <f t="shared" ref="A11:A40" si="0">RIGHT(D11:D48,4)</f>
+        <f>RIGHT(D11:D49,4)</f>
         <v>6354</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -1754,7 +1754,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D12:D50,4)</f>
         <v>4405</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -1780,7 +1780,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D13:D51,4)</f>
         <v>6334</v>
       </c>
       <c r="B13" s="47" t="s">
@@ -1806,7 +1806,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D14:D52,4)</f>
         <v>4335</v>
       </c>
       <c r="B14" s="47" t="s">
@@ -1832,7 +1832,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D15:D53,4)</f>
         <v>6346</v>
       </c>
       <c r="B15" s="47" t="s">
@@ -1858,7 +1858,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D16:D54,4)</f>
         <v>6268</v>
       </c>
       <c r="B16" s="50" t="s">
@@ -1884,7 +1884,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D17:D55,4)</f>
         <v>6254</v>
       </c>
       <c r="B17" s="50" t="s">
@@ -1910,7 +1910,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D18:D56,4)</f>
         <v>6837</v>
       </c>
       <c r="B18" s="50" t="s">
@@ -1936,7 +1936,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D19:D57,4)</f>
         <v>7077</v>
       </c>
       <c r="B19" s="50" t="s">
@@ -1962,7 +1962,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D20:D58,4)</f>
         <v>7038</v>
       </c>
       <c r="B20" s="50" t="s">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="60">
-        <f t="shared" ref="F20:F22" si="1">E20</f>
+        <f t="shared" ref="F20:F22" si="0">E20</f>
         <v>0</v>
       </c>
       <c r="G20" s="60"/>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D21:D59,4)</f>
         <v>7075</v>
       </c>
       <c r="B21" s="47" t="s">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G21" s="60"/>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="22" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D22:D60,4)</f>
         <v>6303</v>
       </c>
       <c r="B22" s="47" t="s">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="E22" s="56"/>
       <c r="F22" s="60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G22" s="63"/>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="23" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D23:D61,4)</f>
         <v>7067</v>
       </c>
       <c r="B23" s="47" t="s">
@@ -2066,7 +2066,7 @@
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D24:D62,4)</f>
         <v>7070</v>
       </c>
       <c r="B24" s="47" t="s">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="60">
-        <f t="shared" ref="F24:F25" si="2">E24</f>
+        <f t="shared" ref="F24:F25" si="1">E24</f>
         <v>0</v>
       </c>
       <c r="G24" s="60"/>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="25" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D25:D63,4)</f>
         <v>7058</v>
       </c>
       <c r="B25" s="47" t="s">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="63"/>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D26:D64,4)</f>
         <v>7021</v>
       </c>
       <c r="B26" s="64" t="s">
@@ -2144,7 +2144,7 @@
     </row>
     <row r="27" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D27:D65,4)</f>
         <v>7003</v>
       </c>
       <c r="B27" s="64" t="s">
@@ -2170,7 +2170,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D28:D66,4)</f>
         <v>7019</v>
       </c>
       <c r="B28" s="64" t="s">
@@ -2196,7 +2196,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D29:D67,4)</f>
         <v>7007</v>
       </c>
       <c r="B29" s="64" t="s">
@@ -2222,7 +2222,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D30:D68,4)</f>
         <v>7009</v>
       </c>
       <c r="B30" s="64" t="s">
@@ -2248,7 +2248,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D31:D69,4)</f>
         <v>7013</v>
       </c>
       <c r="B31" s="64" t="s">
@@ -2274,7 +2274,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D32:D70,4)</f>
         <v>7011</v>
       </c>
       <c r="B32" s="64" t="s">
@@ -2300,7 +2300,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D33:D71,4)</f>
         <v>6260</v>
       </c>
       <c r="B33" s="64" t="s">
@@ -2326,7 +2326,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D34:D72,4)</f>
         <v>7002</v>
       </c>
       <c r="B34" s="64" t="s">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="E34" s="56"/>
       <c r="F34" s="60">
-        <f t="shared" ref="F34:F35" si="3">E34</f>
+        <f t="shared" ref="F34:F35" si="2">E34</f>
         <v>0</v>
       </c>
       <c r="G34" s="60"/>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D35:D73,4)</f>
         <v>7015</v>
       </c>
       <c r="B35" s="64" t="s">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="E35" s="56"/>
       <c r="F35" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="60"/>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D36:D74,4)</f>
         <v>7017</v>
       </c>
       <c r="B36" s="64" t="s">
@@ -2404,7 +2404,7 @@
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D37:D75,4)</f>
         <v>7005</v>
       </c>
       <c r="B37" s="64" t="s">
@@ -2430,7 +2430,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D38:D76,4)</f>
         <v>1146</v>
       </c>
       <c r="B38" s="47" t="s">
@@ -2456,7 +2456,7 @@
     </row>
     <row r="39" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D39:D77,4)</f>
         <v>5738</v>
       </c>
       <c r="B39" s="47" t="s">
@@ -2482,7 +2482,7 @@
     </row>
     <row r="40" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D40:D78,4)</f>
         <v>4993</v>
       </c>
       <c r="B40" s="47" t="s">
@@ -2508,7 +2508,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="46" t="str">
-        <f t="shared" ref="A41:A47" si="4">RIGHT(D18:D55,4)</f>
+        <f>RIGHT(D18:D56,4)</f>
         <v>4154</v>
       </c>
       <c r="B41" s="47" t="s">
@@ -2534,7 +2534,7 @@
     </row>
     <row r="42" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="46" t="str">
-        <f t="shared" si="4"/>
+        <f>RIGHT(D19:D57,4)</f>
         <v>5739</v>
       </c>
       <c r="B42" s="47" t="s">
@@ -2560,7 +2560,7 @@
     </row>
     <row r="43" spans="1:10" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="46" t="str">
-        <f t="shared" si="4"/>
+        <f>RIGHT(D20:D58,4)</f>
         <v>6930</v>
       </c>
       <c r="B43" s="55" t="s">
@@ -2586,7 +2586,7 @@
     </row>
     <row r="44" spans="1:10" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="str">
-        <f t="shared" si="4"/>
+        <f>RIGHT(D21:D59,4)</f>
         <v>6207</v>
       </c>
       <c r="B44" s="55" t="s">
@@ -2612,7 +2612,7 @@
     </row>
     <row r="45" spans="1:10" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="46" t="str">
-        <f t="shared" si="4"/>
+        <f>RIGHT(D22:D60,4)</f>
         <v>7089</v>
       </c>
       <c r="B45" s="55" t="s">
@@ -2638,7 +2638,7 @@
     </row>
     <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="46" t="str">
-        <f t="shared" si="4"/>
+        <f>RIGHT(D23:D61,4)</f>
         <v>6200</v>
       </c>
       <c r="B46" s="55" t="s">
@@ -2662,72 +2662,87 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="46" t="str">
-        <f t="shared" si="4"/>
-        <v>3215</v>
-      </c>
-      <c r="B47" s="47" t="s">
-        <v>63</v>
+        <f>RIGHT(D24:D62,4)</f>
+        <v>6787</v>
+      </c>
+      <c r="B47" s="55" t="s">
+        <v>90</v>
       </c>
       <c r="C47" s="48" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="49">
-        <v>1001094053215</v>
+        <v>1001300456787</v>
       </c>
       <c r="E47" s="56"/>
       <c r="F47" s="60">
-        <f>E47*0.4</f>
+        <f>E47*0.33</f>
         <v>0</v>
       </c>
-      <c r="G47" s="60">
+      <c r="G47" s="60"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="73"/>
+    </row>
+    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="46" t="str">
+        <f>RIGHT(D24:D62,4)</f>
+        <v>3215</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="49">
+        <v>1001094053215</v>
+      </c>
+      <c r="E48" s="56"/>
+      <c r="F48" s="60">
+        <f>E48*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="60">
         <v>3.2</v>
       </c>
-      <c r="H47" s="61"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="73">
+      <c r="H48" s="61"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="73">
         <v>93.82</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
-      <c r="B48" s="44" t="s">
+    <row r="49" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="45"/>
+      <c r="B49" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="29">
-        <f>SUM(E10:E47)</f>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="29">
+        <f>SUM(E10:E48)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="57">
-        <f>SUM(F10:F47)</f>
+      <c r="F49" s="57">
+        <f>SUM(F10:F48)</f>
         <v>0</v>
       </c>
-      <c r="G48" s="58"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="59"/>
-    </row>
-    <row r="49" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="35"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G49" s="58"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="59"/>
+    </row>
+    <row r="50" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B50" s="30"/>
       <c r="C50" s="31"/>
       <c r="D50" s="31"/>
       <c r="F50" s="32"/>
       <c r="G50" s="33"/>
       <c r="H50" s="33"/>
-      <c r="I50" s="36"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I50" s="35"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B51" s="30"/>
       <c r="C51" s="31"/>
       <c r="D51" s="31"/>
@@ -2736,16 +2751,16 @@
       <c r="H51" s="33"/>
       <c r="I51" s="36"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B52" s="30"/>
       <c r="C52" s="31"/>
       <c r="D52" s="31"/>
-      <c r="F52" s="34"/>
+      <c r="F52" s="32"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
       <c r="I52" s="36"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B53" s="30"/>
       <c r="C53" s="31"/>
       <c r="D53" s="31"/>
@@ -2754,7 +2769,7 @@
       <c r="H53" s="33"/>
       <c r="I53" s="36"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B54" s="30"/>
       <c r="C54" s="31"/>
       <c r="D54" s="31"/>
@@ -2763,7 +2778,7 @@
       <c r="H54" s="33"/>
       <c r="I54" s="36"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B55" s="30"/>
       <c r="C55" s="31"/>
       <c r="D55" s="31"/>
@@ -2772,7 +2787,7 @@
       <c r="H55" s="33"/>
       <c r="I55" s="36"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" s="30"/>
       <c r="C56" s="31"/>
       <c r="D56" s="31"/>
@@ -2781,7 +2796,7 @@
       <c r="H56" s="33"/>
       <c r="I56" s="36"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B57" s="30"/>
       <c r="C57" s="31"/>
       <c r="D57" s="31"/>
@@ -2790,7 +2805,7 @@
       <c r="H57" s="33"/>
       <c r="I57" s="36"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B58" s="30"/>
       <c r="C58" s="31"/>
       <c r="D58" s="31"/>
@@ -2799,7 +2814,7 @@
       <c r="H58" s="33"/>
       <c r="I58" s="36"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B59" s="30"/>
       <c r="C59" s="31"/>
       <c r="D59" s="31"/>
@@ -2808,7 +2823,7 @@
       <c r="H59" s="33"/>
       <c r="I59" s="36"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B60" s="30"/>
       <c r="C60" s="31"/>
       <c r="D60" s="31"/>
@@ -2817,7 +2832,7 @@
       <c r="H60" s="33"/>
       <c r="I60" s="36"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B61" s="30"/>
       <c r="C61" s="31"/>
       <c r="D61" s="31"/>
@@ -2826,7 +2841,7 @@
       <c r="H61" s="33"/>
       <c r="I61" s="36"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B62" s="30"/>
       <c r="C62" s="31"/>
       <c r="D62" s="31"/>
@@ -2835,7 +2850,7 @@
       <c r="H62" s="33"/>
       <c r="I62" s="36"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B63" s="30"/>
       <c r="C63" s="31"/>
       <c r="D63" s="31"/>
@@ -2844,7 +2859,7 @@
       <c r="H63" s="33"/>
       <c r="I63" s="36"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B64" s="30"/>
       <c r="C64" s="31"/>
       <c r="D64" s="31"/>
@@ -16425,8 +16440,17 @@
       <c r="H1572" s="33"/>
       <c r="I1572" s="36"/>
     </row>
+    <row r="1573" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1573" s="30"/>
+      <c r="C1573" s="31"/>
+      <c r="D1573" s="31"/>
+      <c r="F1573" s="34"/>
+      <c r="G1573" s="33"/>
+      <c r="H1573" s="33"/>
+      <c r="I1573" s="36"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:I50" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:I51" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="3">
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="F3:I3"/>
@@ -16436,7 +16460,7 @@
   <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="F11 F23 F31 F42 F13" formula="1"/>
-    <ignoredError sqref="A41:A47 A11:A40" formulaRange="1"/>
+    <ignoredError sqref="A48 A11:A46" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/UZ/чистый бланк/Бланк Заказа Мос Прод Торг.xlsx
+++ b/UZ/чистый бланк/Бланк Заказа Мос Прод Торг.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6284641D-775E-45CD-A45D-3DAEF76E598E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C54F3E-D326-48D6-A3DD-CCD5858CAEA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="кол_во_инд.__упак_к">машины!$AC$3:$AC$941</definedName>
     <definedName name="номин.вес_нетто__кг">машины!$W$3:$W$941</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1534,7 +1534,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1587,13 +1587,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="14">
-        <v>45769</v>
+        <v>45776</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="78">
-        <v>45776</v>
+        <v>45783</v>
       </c>
       <c r="G3" s="79"/>
       <c r="H3" s="79"/>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="str">
-        <f>RIGHT(D10:D48,4)</f>
+        <f t="shared" ref="A10:A40" si="0">RIGHT(D10:D48,4)</f>
         <v>3220</v>
       </c>
       <c r="B10" s="47" t="s">
@@ -1728,7 +1728,7 @@
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="str">
-        <f>RIGHT(D11:D49,4)</f>
+        <f t="shared" si="0"/>
         <v>6354</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -1754,7 +1754,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="str">
-        <f>RIGHT(D12:D50,4)</f>
+        <f t="shared" si="0"/>
         <v>4405</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -1780,7 +1780,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="46" t="str">
-        <f>RIGHT(D13:D51,4)</f>
+        <f t="shared" si="0"/>
         <v>6334</v>
       </c>
       <c r="B13" s="47" t="s">
@@ -1806,7 +1806,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="46" t="str">
-        <f>RIGHT(D14:D52,4)</f>
+        <f t="shared" si="0"/>
         <v>4335</v>
       </c>
       <c r="B14" s="47" t="s">
@@ -1832,7 +1832,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="str">
-        <f>RIGHT(D15:D53,4)</f>
+        <f t="shared" si="0"/>
         <v>6346</v>
       </c>
       <c r="B15" s="47" t="s">
@@ -1858,7 +1858,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="46" t="str">
-        <f>RIGHT(D16:D54,4)</f>
+        <f t="shared" si="0"/>
         <v>6268</v>
       </c>
       <c r="B16" s="50" t="s">
@@ -1884,7 +1884,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="46" t="str">
-        <f>RIGHT(D17:D55,4)</f>
+        <f t="shared" si="0"/>
         <v>6254</v>
       </c>
       <c r="B17" s="50" t="s">
@@ -1910,7 +1910,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="str">
-        <f>RIGHT(D18:D56,4)</f>
+        <f t="shared" si="0"/>
         <v>6837</v>
       </c>
       <c r="B18" s="50" t="s">
@@ -1936,7 +1936,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="46" t="str">
-        <f>RIGHT(D19:D57,4)</f>
+        <f t="shared" si="0"/>
         <v>7077</v>
       </c>
       <c r="B19" s="50" t="s">
@@ -1962,7 +1962,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="46" t="str">
-        <f>RIGHT(D20:D58,4)</f>
+        <f t="shared" si="0"/>
         <v>7038</v>
       </c>
       <c r="B20" s="50" t="s">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="60">
-        <f t="shared" ref="F20:F22" si="0">E20</f>
+        <f t="shared" ref="F20:F22" si="1">E20</f>
         <v>0</v>
       </c>
       <c r="G20" s="60"/>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="46" t="str">
-        <f>RIGHT(D21:D59,4)</f>
+        <f t="shared" si="0"/>
         <v>7075</v>
       </c>
       <c r="B21" s="47" t="s">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G21" s="60"/>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="22" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="46" t="str">
-        <f>RIGHT(D22:D60,4)</f>
+        <f t="shared" si="0"/>
         <v>6303</v>
       </c>
       <c r="B22" s="47" t="s">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="E22" s="56"/>
       <c r="F22" s="60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G22" s="63"/>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="23" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="46" t="str">
-        <f>RIGHT(D23:D61,4)</f>
+        <f t="shared" si="0"/>
         <v>7067</v>
       </c>
       <c r="B23" s="47" t="s">
@@ -2066,7 +2066,7 @@
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="46" t="str">
-        <f>RIGHT(D24:D62,4)</f>
+        <f t="shared" si="0"/>
         <v>7070</v>
       </c>
       <c r="B24" s="47" t="s">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="60">
-        <f t="shared" ref="F24:F25" si="1">E24</f>
+        <f t="shared" ref="F24:F25" si="2">E24</f>
         <v>0</v>
       </c>
       <c r="G24" s="60"/>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="25" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="46" t="str">
-        <f>RIGHT(D25:D63,4)</f>
+        <f t="shared" si="0"/>
         <v>7058</v>
       </c>
       <c r="B25" s="47" t="s">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="63"/>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="46" t="str">
-        <f>RIGHT(D26:D64,4)</f>
+        <f t="shared" si="0"/>
         <v>7021</v>
       </c>
       <c r="B26" s="64" t="s">
@@ -2144,7 +2144,7 @@
     </row>
     <row r="27" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="46" t="str">
-        <f>RIGHT(D27:D65,4)</f>
+        <f t="shared" si="0"/>
         <v>7003</v>
       </c>
       <c r="B27" s="64" t="s">
@@ -2170,7 +2170,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="46" t="str">
-        <f>RIGHT(D28:D66,4)</f>
+        <f t="shared" si="0"/>
         <v>7019</v>
       </c>
       <c r="B28" s="64" t="s">
@@ -2196,7 +2196,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="46" t="str">
-        <f>RIGHT(D29:D67,4)</f>
+        <f t="shared" si="0"/>
         <v>7007</v>
       </c>
       <c r="B29" s="64" t="s">
@@ -2222,7 +2222,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="46" t="str">
-        <f>RIGHT(D30:D68,4)</f>
+        <f t="shared" si="0"/>
         <v>7009</v>
       </c>
       <c r="B30" s="64" t="s">
@@ -2248,7 +2248,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="46" t="str">
-        <f>RIGHT(D31:D69,4)</f>
+        <f t="shared" si="0"/>
         <v>7013</v>
       </c>
       <c r="B31" s="64" t="s">
@@ -2274,7 +2274,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="46" t="str">
-        <f>RIGHT(D32:D70,4)</f>
+        <f t="shared" si="0"/>
         <v>7011</v>
       </c>
       <c r="B32" s="64" t="s">
@@ -2300,7 +2300,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="46" t="str">
-        <f>RIGHT(D33:D71,4)</f>
+        <f t="shared" si="0"/>
         <v>6260</v>
       </c>
       <c r="B33" s="64" t="s">
@@ -2326,7 +2326,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="46" t="str">
-        <f>RIGHT(D34:D72,4)</f>
+        <f t="shared" si="0"/>
         <v>7002</v>
       </c>
       <c r="B34" s="64" t="s">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="E34" s="56"/>
       <c r="F34" s="60">
-        <f t="shared" ref="F34:F35" si="2">E34</f>
+        <f t="shared" ref="F34:F35" si="3">E34</f>
         <v>0</v>
       </c>
       <c r="G34" s="60"/>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="46" t="str">
-        <f>RIGHT(D35:D73,4)</f>
+        <f t="shared" si="0"/>
         <v>7015</v>
       </c>
       <c r="B35" s="64" t="s">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="E35" s="56"/>
       <c r="F35" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G35" s="60"/>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="46" t="str">
-        <f>RIGHT(D36:D74,4)</f>
+        <f t="shared" si="0"/>
         <v>7017</v>
       </c>
       <c r="B36" s="64" t="s">
@@ -2404,7 +2404,7 @@
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="46" t="str">
-        <f>RIGHT(D37:D75,4)</f>
+        <f t="shared" si="0"/>
         <v>7005</v>
       </c>
       <c r="B37" s="64" t="s">
@@ -2430,7 +2430,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="46" t="str">
-        <f>RIGHT(D38:D76,4)</f>
+        <f t="shared" si="0"/>
         <v>1146</v>
       </c>
       <c r="B38" s="47" t="s">
@@ -2456,7 +2456,7 @@
     </row>
     <row r="39" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="46" t="str">
-        <f>RIGHT(D39:D77,4)</f>
+        <f t="shared" si="0"/>
         <v>5738</v>
       </c>
       <c r="B39" s="47" t="s">
@@ -2482,7 +2482,7 @@
     </row>
     <row r="40" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="46" t="str">
-        <f>RIGHT(D40:D78,4)</f>
+        <f t="shared" si="0"/>
         <v>4993</v>
       </c>
       <c r="B40" s="47" t="s">
@@ -2508,7 +2508,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="46" t="str">
-        <f>RIGHT(D18:D56,4)</f>
+        <f t="shared" ref="A41:A47" si="4">RIGHT(D18:D56,4)</f>
         <v>4154</v>
       </c>
       <c r="B41" s="47" t="s">
@@ -2534,7 +2534,7 @@
     </row>
     <row r="42" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="46" t="str">
-        <f>RIGHT(D19:D57,4)</f>
+        <f t="shared" si="4"/>
         <v>5739</v>
       </c>
       <c r="B42" s="47" t="s">
@@ -2560,7 +2560,7 @@
     </row>
     <row r="43" spans="1:10" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="46" t="str">
-        <f>RIGHT(D20:D58,4)</f>
+        <f t="shared" si="4"/>
         <v>6930</v>
       </c>
       <c r="B43" s="55" t="s">
@@ -2586,7 +2586,7 @@
     </row>
     <row r="44" spans="1:10" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="str">
-        <f>RIGHT(D21:D59,4)</f>
+        <f t="shared" si="4"/>
         <v>6207</v>
       </c>
       <c r="B44" s="55" t="s">
@@ -2612,7 +2612,7 @@
     </row>
     <row r="45" spans="1:10" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="46" t="str">
-        <f>RIGHT(D22:D60,4)</f>
+        <f t="shared" si="4"/>
         <v>7089</v>
       </c>
       <c r="B45" s="55" t="s">
@@ -2638,7 +2638,7 @@
     </row>
     <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="46" t="str">
-        <f>RIGHT(D23:D61,4)</f>
+        <f t="shared" si="4"/>
         <v>6200</v>
       </c>
       <c r="B46" s="55" t="s">
@@ -2664,7 +2664,7 @@
     </row>
     <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="46" t="str">
-        <f>RIGHT(D24:D62,4)</f>
+        <f t="shared" si="4"/>
         <v>6787</v>
       </c>
       <c r="B47" s="55" t="s">

--- a/UZ/чистый бланк/Бланк Заказа Мос Прод Торг.xlsx
+++ b/UZ/чистый бланк/Бланк Заказа Мос Прод Торг.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C54F3E-D326-48D6-A3DD-CCD5858CAEA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F440AADE-672C-4712-AF58-C22F713C3260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1534,7 +1534,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1587,13 +1587,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="14">
-        <v>45776</v>
+        <v>45783</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="78">
-        <v>45783</v>
+        <v>45790</v>
       </c>
       <c r="G3" s="79"/>
       <c r="H3" s="79"/>
